--- a/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T23:39:42-06:00</t>
+    <t>2022-01-16T23:55:54-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T23:55:54-06:00</t>
+    <t>2022-01-17T00:51:16-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T10:37:50-06:00</t>
+    <t>2022-01-18T09:56:03-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T09:56:03-06:00</t>
+    <t>2022-01-18T10:02:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:02:13-06:00</t>
+    <t>2022-01-18T10:08:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://consent-engine-ig.awatson.mitre.org/StructureDefinition/consent-exchange-careteam</t>
+    <t>https://gitlab.mitre.org/awatson/us-state-profiles/StructureDefinition/consent-exchange-careteam</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:08:08-06:00</t>
+    <t>2022-02-02T16:42:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -671,7 +671,7 @@
     <t>Roles may sometimes be inferred by type of Practitioner.  These are relationships that hold only within the context of the care team.  General relationships should be handled as properties of the Patient resource directly.</t>
   </si>
   <si>
-    <t>http://consent-engine-ig.awatson.mitre.org/ValueSet/ConsentExchangeRelations</t>
+    <t>https://gitlab.mitre.org/awatson/us-state-profiles/ValueSet/ConsentExchangeRelations</t>
   </si>
   <si>
     <t>REL.2 (or PRT-4?)</t>
@@ -1127,7 +1127,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="35.421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.05078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>

--- a/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-careteam.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://consent-engine-ig.awatson.mitre.org/StructureDefinition/consent-exchange-careteam</t>
+    <t>https://gitlab.mitre.org/awatson/us-state-profiles/StructureDefinition/consent-exchange-careteam</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:08:08-06:00</t>
+    <t>2022-07-03T23:04:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -671,7 +671,7 @@
     <t>Roles may sometimes be inferred by type of Practitioner.  These are relationships that hold only within the context of the care team.  General relationships should be handled as properties of the Patient resource directly.</t>
   </si>
   <si>
-    <t>http://consent-engine-ig.awatson.mitre.org/ValueSet/ConsentExchangeRelations</t>
+    <t>https://gitlab.mitre.org/awatson/us-state-profiles/ValueSet/ConsentExchangeRelations</t>
   </si>
   <si>
     <t>REL.2 (or PRT-4?)</t>
@@ -1127,7 +1127,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="35.421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.05078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
